--- a/Assets/04Table/Fairytale.xlsx
+++ b/Assets/04Table/Fairytale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\3D_Adventure\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9BFD14-B667-467B-8E96-217A1C4DC8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D08C242-E854-4261-871A-934B7D6085D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="21480" windowHeight="13280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="21480" windowHeight="13280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC366E3-BD4A-443C-AC47-B4CBC866E3D8}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2133,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>400</v>
@@ -2169,7 +2169,7 @@
         <v>83</v>
       </c>
       <c r="E25" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F25">
         <v>800</v>
@@ -2421,7 +2421,7 @@
         <v>96</v>
       </c>
       <c r="E32" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2433,10 +2433,10 @@
         <v>31</v>
       </c>
       <c r="I32" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>98</v>
       </c>
       <c r="E33" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2674,7 +2674,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2761,7 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2803,7 +2803,7 @@
       <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2845,7 +2845,7 @@
       <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2887,7 +2887,7 @@
       <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2929,7 +2929,7 @@
       <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2971,7 +2971,7 @@
       <c r="M7" s="1">
         <v>5</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3013,7 +3013,7 @@
       <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3055,7 +3055,7 @@
       <c r="M9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3097,7 +3097,7 @@
       <c r="M10" s="1">
         <v>8</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -3139,7 +3139,7 @@
       <c r="M11" s="1">
         <v>9</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -3181,7 +3181,7 @@
       <c r="M12" s="1">
         <v>10</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -3223,7 +3223,7 @@
       <c r="M13" s="1">
         <v>11</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -3265,7 +3265,7 @@
       <c r="M14" s="1">
         <v>12</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -3307,7 +3307,7 @@
       <c r="M15" s="1">
         <v>13</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -3349,7 +3349,7 @@
       <c r="M16" s="1">
         <v>14</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M17" s="1"/>
@@ -3429,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B82C61-1BEF-445E-BD51-87F0F75AD0C4}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/Fairytale.xlsx
+++ b/Assets/04Table/Fairytale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\3D_Adventure\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD7AF2-872D-410F-B560-3D91BC44DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A47A27-3447-4DF4-A8CB-5B6D4557EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="21480" windowHeight="13280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="240" windowWidth="21480" windowHeight="13280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4601,10 +4601,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4697,6 +4697,91 @@
         <v>-7</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>-23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/Assets/04Table/Fairytale.xlsx
+++ b/Assets/04Table/Fairytale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\3D_Adventure\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A47A27-3447-4DF4-A8CB-5B6D4557EBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C569405-F091-42B1-A938-D9607F1AED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="240" windowWidth="21480" windowHeight="13280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="TipMess" sheetId="3" r:id="rId3"/>
     <sheet name="MonsterData" sheetId="4" r:id="rId4"/>
     <sheet name="DropList" sheetId="5" r:id="rId5"/>
-    <sheet name="Enchant" sheetId="6" r:id="rId6"/>
-    <sheet name="Respawn" sheetId="7" r:id="rId7"/>
+    <sheet name="Respawn" sheetId="7" r:id="rId6"/>
+    <sheet name="Enchant" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="191">
   <si>
     <t>iconResources</t>
   </si>
@@ -452,9 +452,6 @@
   </si>
   <si>
     <t>Sword01</t>
-  </si>
-  <si>
-    <t>dropID</t>
   </si>
   <si>
     <t>Bow02</t>
@@ -905,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
         <v>134</v>
@@ -1053,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
@@ -1140,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -1310,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
         <v>134</v>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -1340,10 +1337,10 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1354,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1395,13 +1392,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1442,7 +1439,7 @@
         <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1483,7 +1480,7 @@
         <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1524,7 +1521,7 @@
         <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1565,7 +1562,7 @@
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1606,7 +1603,7 @@
         <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1647,7 +1644,7 @@
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1688,7 +1685,7 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1729,7 +1726,7 @@
         <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1770,7 +1767,7 @@
         <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1805,13 +1802,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
         <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1852,7 +1849,7 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1887,13 +1884,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1934,7 +1931,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1975,7 +1972,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2016,7 +2013,7 @@
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2057,7 +2054,7 @@
         <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2098,7 +2095,7 @@
         <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2139,7 +2136,7 @@
         <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2180,7 +2177,7 @@
         <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2221,7 +2218,7 @@
         <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2256,13 +2253,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
         <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2297,13 +2294,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2846,15 +2843,15 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C12" sqref="C12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2874,33 +2871,30 @@
         <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10101</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2915,33 +2909,30 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>10101</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>10106</v>
       </c>
       <c r="I2">
-        <v>10106</v>
+        <v>10201</v>
       </c>
       <c r="J2">
-        <v>10201</v>
+        <v>10301</v>
       </c>
       <c r="K2">
-        <v>10301</v>
+        <v>10501</v>
       </c>
       <c r="L2">
-        <v>10501</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2956,28 +2947,25 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>10101</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>10106</v>
       </c>
       <c r="I3">
-        <v>10106</v>
+        <v>10201</v>
       </c>
       <c r="J3">
-        <v>10201</v>
+        <v>10301</v>
       </c>
       <c r="K3">
-        <v>10301</v>
+        <v>10501</v>
       </c>
       <c r="L3">
-        <v>10501</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10201</v>
       </c>
@@ -2997,28 +2985,25 @@
         <v>150</v>
       </c>
       <c r="G4">
-        <v>10102</v>
+        <v>2</v>
       </c>
       <c r="H4">
+        <v>10111</v>
+      </c>
+      <c r="I4">
+        <v>10202</v>
+      </c>
+      <c r="J4">
+        <v>10401</v>
+      </c>
+      <c r="K4">
+        <v>10502</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>10111</v>
-      </c>
-      <c r="J4">
-        <v>10202</v>
-      </c>
-      <c r="K4">
-        <v>10401</v>
-      </c>
-      <c r="L4">
-        <v>10502</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10202</v>
       </c>
@@ -3038,33 +3023,30 @@
         <v>150</v>
       </c>
       <c r="G5">
-        <v>10102</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>10111</v>
       </c>
       <c r="I5">
-        <v>10111</v>
+        <v>10202</v>
       </c>
       <c r="J5">
-        <v>10202</v>
+        <v>10401</v>
       </c>
       <c r="K5">
-        <v>10401</v>
+        <v>10502</v>
       </c>
       <c r="L5">
-        <v>10502</v>
-      </c>
-      <c r="M5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10301</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -3079,33 +3061,30 @@
         <v>800</v>
       </c>
       <c r="G6">
-        <v>10201</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10115</v>
       </c>
       <c r="I6">
-        <v>10115</v>
+        <v>10207</v>
       </c>
       <c r="J6">
-        <v>10207</v>
+        <v>10403</v>
       </c>
       <c r="K6">
-        <v>10403</v>
+        <v>10502</v>
       </c>
       <c r="L6">
-        <v>10502</v>
-      </c>
-      <c r="M6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10401</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3120,33 +3099,30 @@
         <v>80</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>10103</v>
+      </c>
+      <c r="I7">
+        <v>10201</v>
+      </c>
+      <c r="J7">
         <v>10301</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>10103</v>
-      </c>
-      <c r="J7">
-        <v>10201</v>
-      </c>
       <c r="K7">
-        <v>10301</v>
+        <v>10501</v>
       </c>
       <c r="L7">
-        <v>10501</v>
-      </c>
-      <c r="M7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10402</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -3161,28 +3137,25 @@
         <v>80</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>10103</v>
+      </c>
+      <c r="I8">
+        <v>10201</v>
+      </c>
+      <c r="J8">
         <v>10301</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>10103</v>
-      </c>
-      <c r="J8">
-        <v>10201</v>
-      </c>
       <c r="K8">
-        <v>10301</v>
+        <v>10501</v>
       </c>
       <c r="L8">
-        <v>10501</v>
-      </c>
-      <c r="M8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10501</v>
       </c>
@@ -3202,28 +3175,25 @@
         <v>180</v>
       </c>
       <c r="G9">
-        <v>10401</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>10101</v>
       </c>
       <c r="I9">
-        <v>10101</v>
+        <v>10202</v>
       </c>
       <c r="J9">
-        <v>10202</v>
+        <v>10402</v>
       </c>
       <c r="K9">
-        <v>10402</v>
+        <v>10502</v>
       </c>
       <c r="L9">
-        <v>10502</v>
-      </c>
-      <c r="M9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10502</v>
       </c>
@@ -3243,28 +3213,25 @@
         <v>180</v>
       </c>
       <c r="G10">
-        <v>10401</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>10101</v>
       </c>
       <c r="I10">
-        <v>10101</v>
+        <v>10202</v>
       </c>
       <c r="J10">
-        <v>10202</v>
+        <v>10402</v>
       </c>
       <c r="K10">
-        <v>10402</v>
+        <v>10502</v>
       </c>
       <c r="L10">
-        <v>10502</v>
-      </c>
-      <c r="M10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10601</v>
       </c>
@@ -3284,28 +3251,25 @@
         <v>180</v>
       </c>
       <c r="G11">
-        <v>10402</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>10112</v>
       </c>
       <c r="I11">
-        <v>10112</v>
+        <v>10203</v>
       </c>
       <c r="J11">
-        <v>10203</v>
+        <v>10405</v>
       </c>
       <c r="K11">
-        <v>10405</v>
+        <v>10503</v>
       </c>
       <c r="L11">
-        <v>10503</v>
-      </c>
-      <c r="M11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10602</v>
       </c>
@@ -3325,28 +3289,25 @@
         <v>180</v>
       </c>
       <c r="G12">
-        <v>10402</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>10112</v>
       </c>
       <c r="I12">
-        <v>10112</v>
+        <v>10203</v>
       </c>
       <c r="J12">
-        <v>10203</v>
+        <v>10405</v>
       </c>
       <c r="K12">
-        <v>10405</v>
+        <v>10503</v>
       </c>
       <c r="L12">
-        <v>10503</v>
-      </c>
-      <c r="M12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10701</v>
       </c>
@@ -3366,28 +3327,25 @@
         <v>500</v>
       </c>
       <c r="G13">
-        <v>10501</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10114</v>
       </c>
       <c r="I13">
-        <v>10114</v>
+        <v>10206</v>
       </c>
       <c r="J13">
-        <v>10206</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10801</v>
       </c>
@@ -3407,28 +3365,25 @@
         <v>200</v>
       </c>
       <c r="G14">
-        <v>10601</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>10108</v>
       </c>
       <c r="I14">
-        <v>10108</v>
+        <v>10204</v>
       </c>
       <c r="J14">
-        <v>10204</v>
+        <v>10302</v>
       </c>
       <c r="K14">
-        <v>10302</v>
+        <v>10501</v>
       </c>
       <c r="L14">
-        <v>10501</v>
-      </c>
-      <c r="M14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10802</v>
       </c>
@@ -3448,28 +3403,25 @@
         <v>200</v>
       </c>
       <c r="G15">
-        <v>10601</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>10108</v>
       </c>
       <c r="I15">
-        <v>10108</v>
+        <v>10204</v>
       </c>
       <c r="J15">
-        <v>10204</v>
+        <v>10302</v>
       </c>
       <c r="K15">
-        <v>10302</v>
+        <v>10501</v>
       </c>
       <c r="L15">
-        <v>10501</v>
-      </c>
-      <c r="M15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10901</v>
       </c>
@@ -3489,24 +3441,21 @@
         <v>300</v>
       </c>
       <c r="G16">
-        <v>10701</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10110</v>
       </c>
       <c r="I16">
-        <v>10110</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10401</v>
       </c>
       <c r="K16">
-        <v>10401</v>
+        <v>10502</v>
       </c>
       <c r="L16">
-        <v>10502</v>
-      </c>
-      <c r="M16">
         <v>14</v>
       </c>
     </row>
@@ -3522,7 +3471,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3539,16 +3488,16 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -3623,7 +3572,7 @@
         <v>10111</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>10202</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3727,7 +3676,7 @@
         <v>10103</v>
       </c>
       <c r="D8">
-        <v>10201</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3958,6 +3907,197 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>-33.5</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>-27.5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>-23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F31"/>
@@ -3979,16 +4119,16 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4596,195 +4736,4 @@
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>-33.5</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>-27.5</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>75</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>-23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>